--- a/settt.xlsx
+++ b/settt.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -393,7 +393,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -406,7 +406,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>$26.16</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -433,7 +433,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>352.37₽</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -460,32 +460,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>$126.22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>ALL</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ALL</t>
-        </is>
-      </c>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>352.37₽</t>
-        </is>
-      </c>
-    </row>
+    <row r="4"/>
     <row r="5"/>
     <row r="6"/>
     <row r="7"/>
